--- a/1-estrategia/evaluaciones/PerezMarina-20181010.xlsx
+++ b/1-estrategia/evaluaciones/PerezMarina-20181010.xlsx
@@ -938,8 +938,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="170" zoomScaleNormal="170" zoomScalePageLayoutView="170" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" zoomScalePageLayoutView="170" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -1136,15 +1136,15 @@
       </c>
       <c r="D15" s="33">
         <f>D16*0.39+D17/3*0.16+D18*0.29+D19*0.16</f>
-        <v>0.55000000000000004</v>
+        <v>1</v>
       </c>
       <c r="E15" s="33">
         <f t="shared" ref="E15:G15" si="0">E16*0.39+E17/3*0.16+E18*0.29+E19*0.16</f>
-        <v>0.55000000000000004</v>
+        <v>1</v>
       </c>
       <c r="F15" s="33">
         <f t="shared" si="0"/>
-        <v>0.55000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G15" s="33">
         <f t="shared" si="0"/>
@@ -1198,9 +1198,15 @@
       <c r="C18" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
+      <c r="D18" s="4">
+        <v>1</v>
+      </c>
+      <c r="E18" s="4">
+        <v>1</v>
+      </c>
+      <c r="F18" s="4">
+        <v>1</v>
+      </c>
       <c r="G18" s="4">
         <v>1</v>
       </c>
@@ -1212,9 +1218,15 @@
       <c r="C19" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
+      <c r="D19" s="3">
+        <v>1</v>
+      </c>
+      <c r="E19" s="3">
+        <v>1</v>
+      </c>
+      <c r="F19" s="3">
+        <v>1</v>
+      </c>
       <c r="G19" s="3">
         <v>1</v>
       </c>
